--- a/results/birth/SEED_123/result.xlsx
+++ b/results/birth/SEED_123/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2292.657987594604</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>434.262713578542</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>438.4168499056498</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>444.4971479860941</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>450.5092791493734</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>448.7619357617696</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>474.8387590408325</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>516.8151203282674</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>690.0286581484477</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>2368.789764931528</v>
       </c>
+      <c r="AK5" t="n">
+        <v>538.3501106486596</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>541.4316735494499</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>552.6875215550439</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>547.6097236656603</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>551.7773384544651</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>597.282424038361</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>660.4067212343318</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>863.6221486541458</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -968,16 +1068,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9991682285752256</v>
+        <v>0.9991682285752251</v>
       </c>
       <c r="D6" t="n">
         <v>0.9991988522044177</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991468680092416</v>
+        <v>0.9991468680092412</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9991304172027491</v>
+        <v>0.9991304172027493</v>
       </c>
       <c r="G6" t="n">
         <v>0.9990879974185554</v>
@@ -1010,7 +1110,7 @@
         <v>0.9990539378300689</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9990225438047116</v>
+        <v>0.9990225438047118</v>
       </c>
       <c r="R6" t="n">
         <v>0.9989472949286542</v>
@@ -1019,16 +1119,16 @@
         <v>0.9988258795165234</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9982177744077897</v>
+        <v>0.9982177744077898</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9989313574286569</v>
+        <v>0.9989313574286567</v>
       </c>
       <c r="V6" t="n">
         <v>0.9986569426307171</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9982585070350287</v>
+        <v>0.9982585070350286</v>
       </c>
       <c r="X6" t="n">
         <v>0.9979039328467884</v>
@@ -1040,7 +1140,7 @@
         <v>0.9957200354283119</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9937279280290908</v>
+        <v>0.9937279280290906</v>
       </c>
       <c r="AB6" t="n">
         <v>0.9834113076649043</v>
@@ -1052,7 +1152,7 @@
         <v>0.9985669625331408</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9981790985275172</v>
+        <v>0.9981790985275174</v>
       </c>
       <c r="AF6" t="n">
         <v>0.9977433085771948</v>
@@ -1064,10 +1164,34 @@
         <v>0.9953337909151706</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.9936583069139677</v>
+        <v>0.9936583069139678</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9824579698672363</v>
+        <v>0.9824579698672365</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9991555891704178</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.999150194183373</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9991195457902678</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9991261566000184</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9991158067249729</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9988355275105271</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9986635665302224</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9976064753285732</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>2110.548090365728</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>368.5963822110494</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>370.2151553789774</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>375.5289428393046</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>386.3836320177714</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>390.1213578478495</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>426.0095285987854</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>444.4051846758525</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>704.1476362291971</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>2166.388134274264</v>
       </c>
+      <c r="AK8" t="n">
+        <v>478.1675443802905</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>479.8270640448296</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>483.8208102848614</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>501.4164901769042</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>496.1767225970677</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>539.1085291911966</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>566.4028017496709</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>914.6740281328069</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1305,13 +1477,13 @@
         <v>0.9991710143588258</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9991986000937937</v>
+        <v>0.9991986000937935</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9991728797256033</v>
+        <v>0.9991728797256029</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9991640124911016</v>
+        <v>0.9991640124911021</v>
       </c>
       <c r="G9" t="n">
         <v>0.9991444461572219</v>
@@ -1320,19 +1492,19 @@
         <v>0.9991146235476033</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9990726446737391</v>
+        <v>0.9990726446737389</v>
       </c>
       <c r="J9" t="n">
-        <v>0.998909172600958</v>
+        <v>0.9989091726009578</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9986348630180283</v>
+        <v>0.9986348630180281</v>
       </c>
       <c r="L9" t="n">
         <v>0.9960081765976756</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9991728797256033</v>
+        <v>0.9991728797256029</v>
       </c>
       <c r="N9" t="n">
         <v>0.9991618604973398</v>
@@ -1341,19 +1513,19 @@
         <v>0.9991407439500121</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9991084772581532</v>
+        <v>0.9991084772581534</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9990642670231424</v>
+        <v>0.9990642670231422</v>
       </c>
       <c r="R9" t="n">
         <v>0.9989361226543865</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9985622361718145</v>
+        <v>0.9985622361718143</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9956794148368804</v>
+        <v>0.9956794148368806</v>
       </c>
       <c r="U9" t="n">
         <v>0.9990011769928558</v>
@@ -1362,16 +1534,16 @@
         <v>0.9987918270066654</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9985398276383802</v>
+        <v>0.99853982763838</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9982416192372793</v>
+        <v>0.9982416192372792</v>
       </c>
       <c r="Y9" t="n">
         <v>0.9978899258344313</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.9967315720344682</v>
+        <v>0.9967315720344677</v>
       </c>
       <c r="AA9" t="n">
         <v>0.9950471797312233</v>
@@ -1386,7 +1558,7 @@
         <v>0.9986650499688878</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.99832997074894</v>
+        <v>0.9983299707489403</v>
       </c>
       <c r="AF9" t="n">
         <v>0.9979355906301637</v>
@@ -1398,10 +1570,34 @@
         <v>0.9960063528028544</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.9940387497013767</v>
+        <v>0.994038749701377</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.9815382667245658</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9991445502045598</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9991429928549087</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9991240140156837</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9990533151054453</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9990715664975267</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9989491958626312</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9987819370625872</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9968723001433576</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>2051.725752820968</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>282.5479021072388</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>287.4827191543579</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>304.9597949473063</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>307.9579650052389</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>334.3933588091533</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>345.3904226430257</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>426.3090173657735</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>691.0386287053426</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>2116.100527767774</v>
       </c>
+      <c r="AK11" t="n">
+        <v>406.6227681327846</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>412.2370333815308</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>416.8491417397374</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>435.8916817664871</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>453.0843985734363</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>466.5696390869754</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>545.1029101207242</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>825.7780046604233</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1639,13 +1883,13 @@
         <v>0.9993762162730431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9993971786607108</v>
+        <v>0.9993971786607106</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999166250115589</v>
+        <v>0.9991662501155888</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9991551461869392</v>
+        <v>0.9991551461869393</v>
       </c>
       <c r="G12" t="n">
         <v>0.9991378529628758</v>
@@ -1663,10 +1907,10 @@
         <v>0.9988307607445985</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9977222297533237</v>
+        <v>0.9977222297533239</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9993764969157564</v>
+        <v>0.9993764969157566</v>
       </c>
       <c r="N12" t="n">
         <v>0.9993793463639908</v>
@@ -1678,7 +1922,7 @@
         <v>0.9993612610273999</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9993408278934152</v>
+        <v>0.9993408278934149</v>
       </c>
       <c r="R12" t="n">
         <v>0.9992719242626072</v>
@@ -1690,7 +1934,7 @@
         <v>0.9986870170176998</v>
       </c>
       <c r="U12" t="n">
-        <v>0.9992525913648677</v>
+        <v>0.9992525913648674</v>
       </c>
       <c r="V12" t="n">
         <v>0.9990880116015766</v>
@@ -1699,7 +1943,7 @@
         <v>0.9988800924734369</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9986275026200343</v>
+        <v>0.9986275026200345</v>
       </c>
       <c r="Y12" t="n">
         <v>0.9983260246536441</v>
@@ -1732,20 +1976,45 @@
         <v>0.9950985655783992</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.9926427599924437</v>
+        <v>0.9926427599924439</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.9820242564866282</v>
+        <v>0.9820242564866279</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.9993621256692868</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.9993426057079848</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9993273844989845</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.9992658773192096</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9992130206408877</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9991752767832138</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9988809465415126</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9974483385553613</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
